--- a/Doc_TPI/tests.xlsx
+++ b/Doc_TPI/tests.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19755" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>Fichier de test</t>
   </si>
@@ -55,12 +55,225 @@
   </si>
   <si>
     <t>Création d'un utilisateur sans les données importante</t>
+  </si>
+  <si>
+    <t>index.php</t>
+  </si>
+  <si>
+    <t>L'utilisateur arrive sur la page d'index</t>
+  </si>
+  <si>
+    <t>L'utilisateur clique sur "Connexion/Inscription"</t>
+  </si>
+  <si>
+    <t>L'utilisateur clique sur "A propos"</t>
+  </si>
+  <si>
+    <t>L'utilisateur clique sur une annonce</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>L'utilisateur clique sur "Nouvelle annonce"</t>
+  </si>
+  <si>
+    <t>L'utilisateur clique sur "Deconnexion"</t>
+  </si>
+  <si>
+    <t>authentifié</t>
+  </si>
+  <si>
+    <t>L'utilisateur clique sur "administration"</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Affichage des annonces du site</t>
+  </si>
+  <si>
+    <t>Redirection sur login.php</t>
+  </si>
+  <si>
+    <t>Redirection sur about.php</t>
+  </si>
+  <si>
+    <t>Redirection sur les details de l'annonce</t>
+  </si>
+  <si>
+    <t>Formulaire d'ajour d'une annonce</t>
+  </si>
+  <si>
+    <t>Deconnexion du site</t>
+  </si>
+  <si>
+    <t>Redirection sur la page d'administration</t>
+  </si>
+  <si>
+    <t>newArticle.php</t>
+  </si>
+  <si>
+    <t>Essaye d'acceder a cette page</t>
+  </si>
+  <si>
+    <t>Redirection sur la page d'accueil</t>
+  </si>
+  <si>
+    <t>Ajoute une annonce avec des données valide</t>
+  </si>
+  <si>
+    <t>Annonce ajoutée et redirection sur les details de celle-ci</t>
+  </si>
+  <si>
+    <t>Ajout une annonce avec des données invalide</t>
+  </si>
+  <si>
+    <t>article.php</t>
+  </si>
+  <si>
+    <t>Commente l'annonce</t>
+  </si>
+  <si>
+    <t>Clique sur "Ouvrir/Fermé"</t>
+  </si>
+  <si>
+    <t>Clique sur "Editer l'anonce"</t>
+  </si>
+  <si>
+    <t>créateur</t>
+  </si>
+  <si>
+    <t>Signale un commentaire</t>
+  </si>
+  <si>
+    <t>Le commentaire est ajouté</t>
+  </si>
+  <si>
+    <t>Le statut de l'annonce change, l'ajout de commentaire est désactivé</t>
+  </si>
+  <si>
+    <t>Redirection sur la page d'edition d'annonce</t>
+  </si>
+  <si>
+    <t>Le commentaire change de message</t>
+  </si>
+  <si>
+    <t>editArticle.php</t>
+  </si>
+  <si>
+    <t>Essaye d'acceder a la page</t>
+  </si>
+  <si>
+    <t>guest/authentifié</t>
+  </si>
+  <si>
+    <t>Modifie les infos de l'annonce</t>
+  </si>
+  <si>
+    <t>Annonce, edité et redirection sur les details de l'annonce</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>about.php</t>
+  </si>
+  <si>
+    <t>Accede a la page</t>
+  </si>
+  <si>
+    <t>Detail du site affiché</t>
+  </si>
+  <si>
+    <t>administration.php</t>
+  </si>
+  <si>
+    <t>Essaye d'acceder à la page</t>
+  </si>
+  <si>
+    <t>Administrateur</t>
+  </si>
+  <si>
+    <t>Ban/Unban un utilisateur</t>
+  </si>
+  <si>
+    <t>Le statut de l'utilisateur change en fonction</t>
+  </si>
+  <si>
+    <t>Ban/Unban une annonce</t>
+  </si>
+  <si>
+    <t>Le status de l'annonce change en fonction</t>
+  </si>
+  <si>
+    <t>articleImages.php</t>
+  </si>
+  <si>
+    <t>login.php</t>
+  </si>
+  <si>
+    <t>Entre des données correct</t>
+  </si>
+  <si>
+    <t>Connecté et rediriger sur la page d'accueil</t>
+  </si>
+  <si>
+    <t>Entre des données incorrect</t>
+  </si>
+  <si>
+    <t>Message d'erreur</t>
+  </si>
+  <si>
+    <t>Bannis</t>
+  </si>
+  <si>
+    <t>Essaye de se connecter</t>
+  </si>
+  <si>
+    <t>modification.php</t>
+  </si>
+  <si>
+    <t>Modifie les informations</t>
+  </si>
+  <si>
+    <t>Infos modifié et redirection sur le profil</t>
+  </si>
+  <si>
+    <t>userPage.php</t>
+  </si>
+  <si>
+    <t>Vois ces annonces et peut modifier les informations</t>
+  </si>
+  <si>
+    <t>register.php</t>
+  </si>
+  <si>
+    <t>entre des informations et se créé un compte</t>
+  </si>
+  <si>
+    <t>Compte créé et redirection sur la page de login</t>
+  </si>
+  <si>
+    <t>entre un mail déjà existant</t>
+  </si>
+  <si>
+    <t>Groupe</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Scénario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,7 +298,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -123,11 +336,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -138,6 +397,54 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -148,6 +455,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -196,7 +506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,9 +539,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +591,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,22 +784,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:G235"/>
+  <dimension ref="B1:G235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G11"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +817,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -479,7 +828,8 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>5</v>
@@ -487,7 +837,8 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="4:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -495,7 +846,8 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="4:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4" t="s">
         <v>8</v>
@@ -503,7 +855,8 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -511,7 +864,8 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -519,7 +873,8 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -527,7 +882,8 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -535,146 +891,631 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="17">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="17">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="17">
+        <v>4</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="17">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="17">
+        <v>6</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="17">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+    <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="17">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+    <row r="23" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="17">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="17">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="18"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="17">
+        <v>11</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+    <row r="26" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="17">
+        <v>12</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+    <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="17">
+        <v>13</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+    <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="17">
+        <v>14</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+    <row r="29" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="17">
+        <v>15</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+    <row r="30" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="17">
+        <v>16</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="17">
+        <v>17</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+    <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="17">
+        <v>18</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="17">
+        <v>19</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="17">
+        <v>20</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="17">
+        <v>21</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="17">
+        <v>22</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="17">
+        <v>23</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="17">
+        <v>24</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="17">
+        <v>25</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="17">
+        <v>26</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="17">
+        <v>27</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="17">
+        <v>28</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="17">
+        <v>29</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="17">
+        <v>30</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="17">
+        <v>31</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="17">
+        <v>32</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="18"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
     </row>
     <row r="235" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D44:D46"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
